--- a/TÀI KHOẢN ĐĂNG NHẬP.xlsx
+++ b/TÀI KHOẢN ĐĂNG NHẬP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KẾ HOẠCH\Yolo-Fashion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E25452-F9B9-4D75-BB91-11017C199A2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F88A35E-0BD6-4792-9CBB-A54920DFA532}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,20 +48,28 @@
     <t>tiktok</t>
   </si>
   <si>
-    <t>Yolo.fashion88</t>
-  </si>
-  <si>
     <t>Yolofashion@88</t>
+  </si>
+  <si>
+    <t>yolo.fashion88</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,13 +92,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,7 +383,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,13 +431,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{E5EF1FF7-768F-47C8-B942-B1066C06C357}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>